--- a/LC-IMPACT-case-study/notebooks/ethanol-inventory.xlsx
+++ b/LC-IMPACT-case-study/notebooks/ethanol-inventory.xlsx
@@ -5,12 +5,12 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cmutel/Library/Containers/com.microsoft.Excel/Data/Desktop/Tasks/lc-impact-case-study/notebooks/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cmutel/Code/regionalization-examples/LC-IMPACT-case-study/notebooks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7E54C59-8821-CC44-9128-AEDC9CD62AF9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D130A8F1-0091-5A44-9BBA-1FC2C8C33F9B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="260" yWindow="760" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="first process" sheetId="1" r:id="rId1"/>
@@ -361,7 +361,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -402,22 +402,14 @@
     </font>
     <font>
       <i/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -554,14 +546,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="111">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -976,59 +966,61 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="F74" sqref="F74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="50.6640625" customWidth="1"/>
-    <col min="2" max="2" width="24.6640625" customWidth="1"/>
-    <col min="3" max="3" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="30.6640625" customWidth="1"/>
-    <col min="5" max="5" width="40.6640625" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" customWidth="1"/>
-    <col min="12" max="12" width="12.6640625" customWidth="1"/>
+    <col min="1" max="1" width="50.6640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="24.6640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="20.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="30.6640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="40.6640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" style="2" customWidth="1"/>
+    <col min="8" max="11" width="8.83203125" style="2"/>
+    <col min="12" max="12" width="12.6640625" style="2" customWidth="1"/>
+    <col min="13" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B1">
+      <c r="B1" s="2">
         <v>10</v>
       </c>
-      <c r="C1" s="2"/>
-    </row>
-    <row r="2" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="C1" s="3"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="2"/>
+      <c r="C2" s="3"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="2"/>
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="2"/>
-    </row>
-    <row r="6" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="C4" s="3"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -1037,51 +1029,51 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="2" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
@@ -1110,23 +1102,23 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B14" s="3">
-        <v>1</v>
-      </c>
-      <c r="C14" s="3" t="s">
+      <c r="B14" s="2">
+        <v>1</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="2" t="s">
         <v>33</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="G14" s="2" t="s">
         <v>25</v>
       </c>
       <c r="H14" s="1">
@@ -1137,32 +1129,32 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="A15" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="B15" s="2">
+        <v>1</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G15" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="2">
         <v>0</v>
       </c>
-      <c r="I15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="I15" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>4</v>
       </c>
@@ -1170,52 +1162,52 @@
         <v>84</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+      <c r="A19" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+      <c r="A20" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+      <c r="A21" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+      <c r="A22" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>14</v>
       </c>
@@ -1253,1952 +1245,1952 @@
         <v>102</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A25" s="3" t="s">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B25">
-        <v>1</v>
-      </c>
-      <c r="C25" t="s">
+      <c r="B25" s="2">
+        <v>1</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D25" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F25" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G25" t="s">
+      <c r="G25" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H25">
+      <c r="H25" s="2">
         <v>0</v>
       </c>
-      <c r="I25">
-        <v>1</v>
-      </c>
-      <c r="J25" t="s">
+      <c r="I25" s="2">
+        <v>1</v>
+      </c>
+      <c r="J25" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+      <c r="A26" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="2">
         <f>IF(M26, L26*0.9, L26)</f>
         <v>4.1147999999999998E-7</v>
       </c>
-      <c r="C26" t="s">
-        <v>12</v>
-      </c>
-      <c r="D26" t="s">
-        <v>21</v>
-      </c>
-      <c r="E26" t="s">
-        <v>22</v>
-      </c>
-      <c r="F26" t="s">
-        <v>23</v>
-      </c>
-      <c r="G26" t="s">
-        <v>24</v>
-      </c>
-      <c r="H26">
-        <v>2</v>
-      </c>
-      <c r="I26">
+      <c r="C26" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H26" s="2">
+        <v>2</v>
+      </c>
+      <c r="I26" s="2">
         <v>-14.5981449050258</v>
       </c>
-      <c r="J26">
-        <v>5.7445626465380303E-2</v>
-      </c>
-      <c r="L26">
+      <c r="J26" s="2">
+        <v>5.7445626465380303E-2</v>
+      </c>
+      <c r="L26" s="2">
         <v>4.5719999999999999E-7</v>
       </c>
-      <c r="M26" t="b">
+      <c r="M26" s="2" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+      <c r="A27" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="2">
         <f t="shared" ref="B27:B68" si="0">IF(M27, L27*0.9, L27)</f>
         <v>6.6753000000000003E-6</v>
       </c>
-      <c r="C27" t="s">
-        <v>12</v>
-      </c>
-      <c r="D27" t="s">
-        <v>21</v>
-      </c>
-      <c r="E27" t="s">
-        <v>22</v>
-      </c>
-      <c r="F27" t="s">
-        <v>23</v>
-      </c>
-      <c r="G27" t="s">
-        <v>24</v>
-      </c>
-      <c r="H27">
-        <v>2</v>
-      </c>
-      <c r="I27">
+      <c r="C27" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H27" s="2">
+        <v>2</v>
+      </c>
+      <c r="I27" s="2">
         <v>-11.8117358952099</v>
       </c>
-      <c r="J27">
-        <v>5.7445626465380303E-2</v>
-      </c>
-      <c r="L27">
+      <c r="J27" s="2">
+        <v>5.7445626465380303E-2</v>
+      </c>
+      <c r="L27" s="2">
         <v>7.4170000000000003E-6</v>
       </c>
-      <c r="M27" t="b">
+      <c r="M27" s="2" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+      <c r="A28" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="2">
         <f t="shared" si="0"/>
         <v>1.8153000000000001E-7</v>
       </c>
-      <c r="C28" t="s">
-        <v>12</v>
-      </c>
-      <c r="D28" t="s">
-        <v>21</v>
-      </c>
-      <c r="E28" t="s">
-        <v>22</v>
-      </c>
-      <c r="F28" t="s">
-        <v>23</v>
-      </c>
-      <c r="G28" t="s">
-        <v>24</v>
-      </c>
-      <c r="H28">
-        <v>2</v>
-      </c>
-      <c r="I28">
+      <c r="C28" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H28" s="2">
+        <v>2</v>
+      </c>
+      <c r="I28" s="2">
         <v>-15.4164843919862</v>
       </c>
-      <c r="J28">
-        <v>5.7445626465380303E-2</v>
-      </c>
-      <c r="L28">
+      <c r="J28" s="2">
+        <v>5.7445626465380303E-2</v>
+      </c>
+      <c r="L28" s="2">
         <v>2.0170000000000001E-7</v>
       </c>
-      <c r="M28" t="b">
+      <c r="M28" s="2" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+      <c r="A29" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="2">
         <f t="shared" si="0"/>
         <v>1.4760000000000002E-7</v>
       </c>
-      <c r="C29" t="s">
-        <v>12</v>
-      </c>
-      <c r="D29" t="s">
-        <v>21</v>
-      </c>
-      <c r="E29" t="s">
-        <v>22</v>
-      </c>
-      <c r="F29" t="s">
-        <v>23</v>
-      </c>
-      <c r="G29" t="s">
-        <v>24</v>
-      </c>
-      <c r="H29">
-        <v>2</v>
-      </c>
-      <c r="I29">
+      <c r="C29" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H29" s="2">
+        <v>2</v>
+      </c>
+      <c r="I29" s="2">
         <v>-15.6233994091222</v>
       </c>
-      <c r="J29">
-        <v>5.7445626465380303E-2</v>
-      </c>
-      <c r="L29">
+      <c r="J29" s="2">
+        <v>5.7445626465380303E-2</v>
+      </c>
+      <c r="L29" s="2">
         <v>1.6400000000000001E-7</v>
       </c>
-      <c r="M29" t="b">
+      <c r="M29" s="2" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+      <c r="A30" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="2">
         <f t="shared" si="0"/>
         <v>4.5990000000000004E-8</v>
       </c>
-      <c r="C30" t="s">
-        <v>12</v>
-      </c>
-      <c r="D30" t="s">
-        <v>21</v>
-      </c>
-      <c r="E30" t="s">
-        <v>22</v>
-      </c>
-      <c r="F30" t="s">
-        <v>23</v>
-      </c>
-      <c r="G30" t="s">
-        <v>24</v>
-      </c>
-      <c r="H30">
-        <v>2</v>
-      </c>
-      <c r="I30">
+      <c r="C30" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H30" s="2">
+        <v>2</v>
+      </c>
+      <c r="I30" s="2">
         <v>-16.789481339736799</v>
       </c>
-      <c r="J30">
-        <v>5.7445626465380303E-2</v>
-      </c>
-      <c r="L30">
+      <c r="J30" s="2">
+        <v>5.7445626465380303E-2</v>
+      </c>
+      <c r="L30" s="2">
         <v>5.1100000000000001E-8</v>
       </c>
-      <c r="M30" t="b">
+      <c r="M30" s="2" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+      <c r="A31" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="2">
         <f t="shared" si="0"/>
         <v>2.2133038079999999E-6</v>
       </c>
-      <c r="C31" t="s">
-        <v>12</v>
-      </c>
-      <c r="D31" t="s">
-        <v>21</v>
-      </c>
-      <c r="E31" t="s">
-        <v>22</v>
-      </c>
-      <c r="F31" t="s">
-        <v>23</v>
-      </c>
-      <c r="G31" t="s">
-        <v>24</v>
-      </c>
-      <c r="H31">
-        <v>2</v>
-      </c>
-      <c r="I31">
+      <c r="C31" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H31" s="2">
+        <v>2</v>
+      </c>
+      <c r="I31" s="2">
         <v>-13.0210242229921</v>
       </c>
-      <c r="J31">
-        <v>5.7445626465380303E-2</v>
-      </c>
-      <c r="L31">
+      <c r="J31" s="2">
+        <v>5.7445626465380303E-2</v>
+      </c>
+      <c r="L31" s="2">
         <v>2.2133038079999999E-6</v>
       </c>
-      <c r="M31" t="b">
+      <c r="M31" s="2" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
+      <c r="A32" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="2">
         <f t="shared" si="0"/>
         <v>5.3244000000000003E-8</v>
       </c>
-      <c r="C32" t="s">
-        <v>12</v>
-      </c>
-      <c r="D32" t="s">
-        <v>21</v>
-      </c>
-      <c r="E32" t="s">
-        <v>22</v>
-      </c>
-      <c r="F32" t="s">
-        <v>23</v>
-      </c>
-      <c r="G32" t="s">
-        <v>24</v>
-      </c>
-      <c r="H32">
-        <v>2</v>
-      </c>
-      <c r="I32">
+      <c r="C32" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H32" s="2">
+        <v>2</v>
+      </c>
+      <c r="I32" s="2">
         <v>-16.643020199103798</v>
       </c>
-      <c r="J32">
-        <v>5.7445626465380303E-2</v>
-      </c>
-      <c r="L32">
+      <c r="J32" s="2">
+        <v>5.7445626465380303E-2</v>
+      </c>
+      <c r="L32" s="2">
         <v>5.9160000000000002E-8</v>
       </c>
-      <c r="M32" t="b">
+      <c r="M32" s="2" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
+      <c r="A33" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="2">
         <f t="shared" si="0"/>
         <v>3.6423000000000003E-6</v>
       </c>
-      <c r="C33" t="s">
-        <v>12</v>
-      </c>
-      <c r="D33" t="s">
-        <v>21</v>
-      </c>
-      <c r="E33" t="s">
-        <v>22</v>
-      </c>
-      <c r="F33" t="s">
-        <v>23</v>
-      </c>
-      <c r="G33" t="s">
-        <v>24</v>
-      </c>
-      <c r="H33">
-        <v>2</v>
-      </c>
-      <c r="I33">
+      <c r="C33" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H33" s="2">
+        <v>2</v>
+      </c>
+      <c r="I33" s="2">
         <v>-12.4175346920705</v>
       </c>
-      <c r="J33">
-        <v>5.7445626465380303E-2</v>
-      </c>
-      <c r="L33">
+      <c r="J33" s="2">
+        <v>5.7445626465380303E-2</v>
+      </c>
+      <c r="L33" s="2">
         <v>4.0470000000000004E-6</v>
       </c>
-      <c r="M33" t="b">
+      <c r="M33" s="2" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
+      <c r="A34" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="2">
         <f t="shared" si="0"/>
         <v>6.8481000000000006E-6</v>
       </c>
-      <c r="C34" t="s">
-        <v>12</v>
-      </c>
-      <c r="D34" t="s">
-        <v>21</v>
-      </c>
-      <c r="E34" t="s">
-        <v>22</v>
-      </c>
-      <c r="F34" t="s">
-        <v>23</v>
-      </c>
-      <c r="G34" t="s">
-        <v>24</v>
-      </c>
-      <c r="H34">
-        <v>2</v>
-      </c>
-      <c r="I34">
+      <c r="C34" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H34" s="2">
+        <v>2</v>
+      </c>
+      <c r="I34" s="2">
         <v>-11.7861788007699</v>
       </c>
-      <c r="J34">
-        <v>5.7445626465380303E-2</v>
-      </c>
-      <c r="L34">
+      <c r="J34" s="2">
+        <v>5.7445626465380303E-2</v>
+      </c>
+      <c r="L34" s="2">
         <v>7.6090000000000003E-6</v>
       </c>
-      <c r="M34" t="b">
+      <c r="M34" s="2" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
+      <c r="A35" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="2">
         <f t="shared" si="0"/>
         <v>7.3776793599999997E-10</v>
       </c>
-      <c r="C35" t="s">
-        <v>12</v>
-      </c>
-      <c r="D35" t="s">
-        <v>21</v>
-      </c>
-      <c r="E35" t="s">
-        <v>22</v>
-      </c>
-      <c r="F35" t="s">
-        <v>23</v>
-      </c>
-      <c r="G35" t="s">
-        <v>24</v>
-      </c>
-      <c r="H35">
-        <v>2</v>
-      </c>
-      <c r="I35">
+      <c r="C35" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H35" s="2">
+        <v>2</v>
+      </c>
+      <c r="I35" s="2">
         <v>-21.027391790642302</v>
       </c>
-      <c r="J35">
-        <v>5.7445626465380303E-2</v>
-      </c>
-      <c r="L35">
+      <c r="J35" s="2">
+        <v>5.7445626465380303E-2</v>
+      </c>
+      <c r="L35" s="2">
         <v>7.3776793599999997E-10</v>
       </c>
-      <c r="M35" t="b">
+      <c r="M35" s="2" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
+      <c r="A36" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="2">
         <f t="shared" si="0"/>
         <v>0.234610203648</v>
       </c>
-      <c r="C36" t="s">
-        <v>12</v>
-      </c>
-      <c r="D36" t="s">
-        <v>21</v>
-      </c>
-      <c r="E36" t="s">
-        <v>22</v>
-      </c>
-      <c r="F36" t="s">
-        <v>23</v>
-      </c>
-      <c r="G36" t="s">
-        <v>24</v>
-      </c>
-      <c r="H36">
-        <v>2</v>
-      </c>
-      <c r="I36">
+      <c r="C36" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H36" s="2">
+        <v>2</v>
+      </c>
+      <c r="I36" s="2">
         <v>-1.4498298498978499</v>
       </c>
-      <c r="J36">
-        <v>5.7445626465380303E-2</v>
-      </c>
-      <c r="L36">
+      <c r="J36" s="2">
+        <v>5.7445626465380303E-2</v>
+      </c>
+      <c r="L36" s="2">
         <v>0.234610203648</v>
       </c>
-      <c r="M36" t="b">
+      <c r="M36" s="2" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
+      <c r="A37" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="2">
         <f t="shared" si="0"/>
         <v>3.6269999999999998E-4</v>
       </c>
-      <c r="C37" t="s">
-        <v>12</v>
-      </c>
-      <c r="D37" t="s">
-        <v>21</v>
-      </c>
-      <c r="E37" t="s">
-        <v>22</v>
-      </c>
-      <c r="F37" t="s">
-        <v>23</v>
-      </c>
-      <c r="G37" t="s">
-        <v>24</v>
-      </c>
-      <c r="H37">
-        <v>2</v>
-      </c>
-      <c r="I37">
+      <c r="C37" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H37" s="2">
+        <v>2</v>
+      </c>
+      <c r="I37" s="2">
         <v>-7.8165739960175902</v>
       </c>
-      <c r="J37">
-        <v>5.7445626465380303E-2</v>
-      </c>
-      <c r="L37">
+      <c r="J37" s="2">
+        <v>5.7445626465380303E-2</v>
+      </c>
+      <c r="L37" s="2">
         <v>4.0299999999999998E-4</v>
       </c>
-      <c r="M37" t="b">
-        <v>1</v>
-      </c>
-      <c r="N37" t="s">
+      <c r="M37" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="N37" s="2" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
+      <c r="A38" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="2">
         <f t="shared" si="0"/>
         <v>3.6888396800000001E-9</v>
       </c>
-      <c r="C38" t="s">
-        <v>12</v>
-      </c>
-      <c r="D38" t="s">
-        <v>21</v>
-      </c>
-      <c r="E38" t="s">
-        <v>22</v>
-      </c>
-      <c r="F38" t="s">
-        <v>23</v>
-      </c>
-      <c r="G38" t="s">
-        <v>24</v>
-      </c>
-      <c r="H38">
-        <v>2</v>
-      </c>
-      <c r="I38">
+      <c r="C38" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H38" s="2">
+        <v>2</v>
+      </c>
+      <c r="I38" s="2">
         <v>-19.417953878208198</v>
       </c>
-      <c r="J38">
-        <v>5.7445626465380303E-2</v>
-      </c>
-      <c r="L38">
+      <c r="J38" s="2">
+        <v>5.7445626465380303E-2</v>
+      </c>
+      <c r="L38" s="2">
         <v>3.6888396800000001E-9</v>
       </c>
-      <c r="M38" t="b">
+      <c r="M38" s="2" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
+      <c r="A39" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="2">
         <f t="shared" si="0"/>
         <v>7.3776793600000006E-12</v>
       </c>
-      <c r="C39" t="s">
-        <v>12</v>
-      </c>
-      <c r="D39" t="s">
-        <v>21</v>
-      </c>
-      <c r="E39" t="s">
-        <v>22</v>
-      </c>
-      <c r="F39" t="s">
-        <v>23</v>
-      </c>
-      <c r="G39" t="s">
-        <v>24</v>
-      </c>
-      <c r="H39">
-        <v>2</v>
-      </c>
-      <c r="I39">
+      <c r="C39" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H39" s="2">
+        <v>2</v>
+      </c>
+      <c r="I39" s="2">
         <v>-25.632561976630399</v>
       </c>
-      <c r="J39">
-        <v>5.7445626465380303E-2</v>
-      </c>
-      <c r="L39">
+      <c r="J39" s="2">
+        <v>5.7445626465380303E-2</v>
+      </c>
+      <c r="L39" s="2">
         <v>7.3776793600000006E-12</v>
       </c>
-      <c r="M39" t="b">
+      <c r="M39" s="2" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
+      <c r="A40" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="2">
         <f t="shared" si="0"/>
         <v>1.2542054912000001E-7</v>
       </c>
-      <c r="C40" t="s">
-        <v>12</v>
-      </c>
-      <c r="D40" t="s">
-        <v>21</v>
-      </c>
-      <c r="E40" t="s">
-        <v>22</v>
-      </c>
-      <c r="F40" t="s">
-        <v>23</v>
-      </c>
-      <c r="G40" t="s">
-        <v>24</v>
-      </c>
-      <c r="H40">
-        <v>2</v>
-      </c>
-      <c r="I40">
+      <c r="C40" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H40" s="2">
+        <v>2</v>
+      </c>
+      <c r="I40" s="2">
         <v>-15.891593353592</v>
       </c>
-      <c r="J40">
-        <v>5.7445626465380303E-2</v>
-      </c>
-      <c r="L40">
+      <c r="J40" s="2">
+        <v>5.7445626465380303E-2</v>
+      </c>
+      <c r="L40" s="2">
         <v>1.2542054912000001E-7</v>
       </c>
-      <c r="M40" t="b">
+      <c r="M40" s="2" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
+      <c r="A41" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="2">
         <f t="shared" si="0"/>
         <v>2.7594000000000002E-7</v>
       </c>
-      <c r="C41" t="s">
-        <v>12</v>
-      </c>
-      <c r="D41" t="s">
-        <v>21</v>
-      </c>
-      <c r="E41" t="s">
-        <v>22</v>
-      </c>
-      <c r="F41" t="s">
-        <v>23</v>
-      </c>
-      <c r="G41" t="s">
-        <v>24</v>
-      </c>
-      <c r="H41">
-        <v>2</v>
-      </c>
-      <c r="I41">
+      <c r="C41" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H41" s="2">
+        <v>2</v>
+      </c>
+      <c r="I41" s="2">
         <v>-14.9977218705087</v>
       </c>
-      <c r="J41">
-        <v>5.7445626465380303E-2</v>
-      </c>
-      <c r="L41">
+      <c r="J41" s="2">
+        <v>5.7445626465380303E-2</v>
+      </c>
+      <c r="L41" s="2">
         <v>3.0660000000000001E-7</v>
       </c>
-      <c r="M41" t="b">
+      <c r="M41" s="2" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
+      <c r="A42" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="2">
         <f t="shared" si="0"/>
         <v>9.5909831680000001E-6</v>
       </c>
-      <c r="C42" t="s">
-        <v>12</v>
-      </c>
-      <c r="D42" t="s">
-        <v>21</v>
-      </c>
-      <c r="E42" t="s">
-        <v>22</v>
-      </c>
-      <c r="F42" t="s">
-        <v>23</v>
-      </c>
-      <c r="G42" t="s">
-        <v>24</v>
-      </c>
-      <c r="H42">
-        <v>2</v>
-      </c>
-      <c r="I42">
+      <c r="C42" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H42" s="2">
+        <v>2</v>
+      </c>
+      <c r="I42" s="2">
         <v>-11.5546871541986</v>
       </c>
-      <c r="J42">
-        <v>5.7445626465380303E-2</v>
-      </c>
-      <c r="L42">
+      <c r="J42" s="2">
+        <v>5.7445626465380303E-2</v>
+      </c>
+      <c r="L42" s="2">
         <v>9.5909831680000001E-6</v>
       </c>
-      <c r="M42" t="b">
+      <c r="M42" s="2" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
+      <c r="A43" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="2">
         <f t="shared" si="0"/>
         <v>1.0575E-6</v>
       </c>
-      <c r="C43" t="s">
-        <v>12</v>
-      </c>
-      <c r="D43" t="s">
-        <v>21</v>
-      </c>
-      <c r="E43" t="s">
-        <v>22</v>
-      </c>
-      <c r="F43" t="s">
-        <v>23</v>
-      </c>
-      <c r="G43" t="s">
-        <v>24</v>
-      </c>
-      <c r="H43">
-        <v>2</v>
-      </c>
-      <c r="I43">
+      <c r="C43" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H43" s="2">
+        <v>2</v>
+      </c>
+      <c r="I43" s="2">
         <v>-13.6542424103682</v>
       </c>
-      <c r="J43">
-        <v>5.7445626465380303E-2</v>
-      </c>
-      <c r="L43">
+      <c r="J43" s="2">
+        <v>5.7445626465380303E-2</v>
+      </c>
+      <c r="L43" s="2">
         <v>1.175E-6</v>
       </c>
-      <c r="M43" t="b">
+      <c r="M43" s="2" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
+      <c r="A44" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="2">
         <f t="shared" si="0"/>
         <v>2.3805E-8</v>
       </c>
-      <c r="C44" t="s">
-        <v>12</v>
-      </c>
-      <c r="D44" t="s">
-        <v>21</v>
-      </c>
-      <c r="E44" t="s">
-        <v>22</v>
-      </c>
-      <c r="F44" t="s">
-        <v>23</v>
-      </c>
-      <c r="G44" t="s">
-        <v>24</v>
-      </c>
-      <c r="H44">
-        <v>2</v>
-      </c>
-      <c r="I44">
+      <c r="C44" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H44" s="2">
+        <v>2</v>
+      </c>
+      <c r="I44" s="2">
         <v>-17.448009678642102</v>
       </c>
-      <c r="J44">
-        <v>5.7445626465380303E-2</v>
-      </c>
-      <c r="L44">
+      <c r="J44" s="2">
+        <v>5.7445626465380303E-2</v>
+      </c>
+      <c r="L44" s="2">
         <v>2.6449999999999999E-8</v>
       </c>
-      <c r="M44" t="b">
+      <c r="M44" s="2" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
+      <c r="A45" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="2">
         <f t="shared" si="0"/>
         <v>1.7667000000000002E-6</v>
       </c>
-      <c r="C45" t="s">
-        <v>12</v>
-      </c>
-      <c r="D45" t="s">
-        <v>21</v>
-      </c>
-      <c r="E45" t="s">
-        <v>22</v>
-      </c>
-      <c r="F45" t="s">
-        <v>23</v>
-      </c>
-      <c r="G45" t="s">
-        <v>24</v>
-      </c>
-      <c r="H45">
-        <v>2</v>
-      </c>
-      <c r="I45">
+      <c r="C45" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H45" s="2">
+        <v>2</v>
+      </c>
+      <c r="I45" s="2">
         <v>-13.14103664267</v>
       </c>
-      <c r="J45">
-        <v>5.7445626465380303E-2</v>
-      </c>
-      <c r="L45">
+      <c r="J45" s="2">
+        <v>5.7445626465380303E-2</v>
+      </c>
+      <c r="L45" s="2">
         <v>1.9630000000000001E-6</v>
       </c>
-      <c r="M45" t="b">
+      <c r="M45" s="2" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
+      <c r="A46" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="2">
         <f t="shared" si="0"/>
         <v>4.1147999999999998E-7</v>
       </c>
-      <c r="C46" t="s">
-        <v>12</v>
-      </c>
-      <c r="D46" t="s">
-        <v>21</v>
-      </c>
-      <c r="E46" t="s">
-        <v>22</v>
-      </c>
-      <c r="F46" t="s">
-        <v>23</v>
-      </c>
-      <c r="G46" t="s">
-        <v>24</v>
-      </c>
-      <c r="H46">
-        <v>2</v>
-      </c>
-      <c r="I46">
+      <c r="C46" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H46" s="2">
+        <v>2</v>
+      </c>
+      <c r="I46" s="2">
         <v>-14.5981449050258</v>
       </c>
-      <c r="J46">
-        <v>5.7445626465380303E-2</v>
-      </c>
-      <c r="L46">
+      <c r="J46" s="2">
+        <v>5.7445626465380303E-2</v>
+      </c>
+      <c r="L46" s="2">
         <v>4.5719999999999999E-7</v>
       </c>
-      <c r="M46" t="b">
+      <c r="M46" s="2" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
+      <c r="A47" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="2">
         <f t="shared" si="0"/>
         <v>1.7910000000000001E-7</v>
       </c>
-      <c r="C47" t="s">
-        <v>12</v>
-      </c>
-      <c r="D47" t="s">
-        <v>21</v>
-      </c>
-      <c r="E47" t="s">
-        <v>22</v>
-      </c>
-      <c r="F47" t="s">
-        <v>23</v>
-      </c>
-      <c r="G47" t="s">
-        <v>24</v>
-      </c>
-      <c r="H47">
-        <v>2</v>
-      </c>
-      <c r="I47">
+      <c r="C47" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H47" s="2">
+        <v>2</v>
+      </c>
+      <c r="I47" s="2">
         <v>-15.4299610122219</v>
       </c>
-      <c r="J47">
-        <v>5.7445626465380303E-2</v>
-      </c>
-      <c r="L47">
+      <c r="J47" s="2">
+        <v>5.7445626465380303E-2</v>
+      </c>
+      <c r="L47" s="2">
         <v>1.99E-7</v>
       </c>
-      <c r="M47" t="b">
+      <c r="M47" s="2" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
+      <c r="A48" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B48">
+      <c r="B48" s="2">
         <f t="shared" si="0"/>
         <v>3.8970000000000006E-7</v>
       </c>
-      <c r="C48" t="s">
-        <v>12</v>
-      </c>
-      <c r="D48" t="s">
-        <v>21</v>
-      </c>
-      <c r="E48" t="s">
-        <v>22</v>
-      </c>
-      <c r="F48" t="s">
-        <v>23</v>
-      </c>
-      <c r="G48" t="s">
-        <v>24</v>
-      </c>
-      <c r="H48">
-        <v>2</v>
-      </c>
-      <c r="I48">
+      <c r="C48" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H48" s="2">
+        <v>2</v>
+      </c>
+      <c r="I48" s="2">
         <v>-14.652528108943899</v>
       </c>
-      <c r="J48">
-        <v>5.7445626465380303E-2</v>
-      </c>
-      <c r="L48">
+      <c r="J48" s="2">
+        <v>5.7445626465380303E-2</v>
+      </c>
+      <c r="L48" s="2">
         <v>4.3300000000000003E-7</v>
       </c>
-      <c r="M48" t="b">
+      <c r="M48" s="2" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
+      <c r="A49" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B49">
+      <c r="B49" s="2">
         <f t="shared" si="0"/>
         <v>1.1066519040000001E-10</v>
       </c>
-      <c r="C49" t="s">
-        <v>12</v>
-      </c>
-      <c r="D49" t="s">
-        <v>21</v>
-      </c>
-      <c r="E49" t="s">
-        <v>22</v>
-      </c>
-      <c r="F49" t="s">
-        <v>23</v>
-      </c>
-      <c r="G49" t="s">
-        <v>24</v>
-      </c>
-      <c r="H49">
-        <v>2</v>
-      </c>
-      <c r="I49">
+      <c r="C49" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H49" s="2">
+        <v>2</v>
+      </c>
+      <c r="I49" s="2">
         <v>-22.924511775528199</v>
       </c>
-      <c r="J49">
-        <v>5.7445626465380303E-2</v>
-      </c>
-      <c r="L49">
+      <c r="J49" s="2">
+        <v>5.7445626465380303E-2</v>
+      </c>
+      <c r="L49" s="2">
         <v>1.1066519040000001E-10</v>
       </c>
-      <c r="M49" t="b">
+      <c r="M49" s="2" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
+      <c r="A50" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B50">
+      <c r="B50" s="2">
         <f t="shared" si="0"/>
         <v>5.1643755519999996E-12</v>
       </c>
-      <c r="C50" t="s">
-        <v>12</v>
-      </c>
-      <c r="D50" t="s">
-        <v>21</v>
-      </c>
-      <c r="E50" t="s">
-        <v>22</v>
-      </c>
-      <c r="F50" t="s">
-        <v>23</v>
-      </c>
-      <c r="G50" t="s">
-        <v>24</v>
-      </c>
-      <c r="H50">
-        <v>2</v>
-      </c>
-      <c r="I50">
+      <c r="C50" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H50" s="2">
+        <v>2</v>
+      </c>
+      <c r="I50" s="2">
         <v>-25.989236920569098</v>
       </c>
-      <c r="J50">
-        <v>5.7445626465380303E-2</v>
-      </c>
-      <c r="L50">
+      <c r="J50" s="2">
+        <v>5.7445626465380303E-2</v>
+      </c>
+      <c r="L50" s="2">
         <v>5.1643755519999996E-12</v>
       </c>
-      <c r="M50" t="b">
+      <c r="M50" s="2" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
+      <c r="A51" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B51">
+      <c r="B51" s="2">
         <f t="shared" si="0"/>
         <v>1.6281000000000002E-5</v>
       </c>
-      <c r="C51" t="s">
-        <v>12</v>
-      </c>
-      <c r="D51" t="s">
-        <v>21</v>
-      </c>
-      <c r="E51" t="s">
-        <v>22</v>
-      </c>
-      <c r="F51" t="s">
-        <v>23</v>
-      </c>
-      <c r="G51" t="s">
-        <v>24</v>
-      </c>
-      <c r="H51">
-        <v>2</v>
-      </c>
-      <c r="I51">
+      <c r="C51" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H51" s="2">
+        <v>2</v>
+      </c>
+      <c r="I51" s="2">
         <v>-10.9201512585571</v>
       </c>
-      <c r="J51">
-        <v>5.7445626465380303E-2</v>
-      </c>
-      <c r="L51">
+      <c r="J51" s="2">
+        <v>5.7445626465380303E-2</v>
+      </c>
+      <c r="L51" s="2">
         <v>1.8090000000000001E-5</v>
       </c>
-      <c r="M51" t="b">
+      <c r="M51" s="2" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
+      <c r="A52" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B52">
+      <c r="B52" s="2">
         <f t="shared" si="0"/>
         <v>1.2105E-8</v>
       </c>
-      <c r="C52" t="s">
-        <v>12</v>
-      </c>
-      <c r="D52" t="s">
-        <v>21</v>
-      </c>
-      <c r="E52" t="s">
-        <v>22</v>
-      </c>
-      <c r="F52" t="s">
-        <v>23</v>
-      </c>
-      <c r="G52" t="s">
-        <v>24</v>
-      </c>
-      <c r="H52">
-        <v>2</v>
-      </c>
-      <c r="I52">
+      <c r="C52" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H52" s="2">
+        <v>2</v>
+      </c>
+      <c r="I52" s="2">
         <v>-18.1242867308986</v>
       </c>
-      <c r="J52">
-        <v>5.7445626465380303E-2</v>
-      </c>
-      <c r="L52">
+      <c r="J52" s="2">
+        <v>5.7445626465380303E-2</v>
+      </c>
+      <c r="L52" s="2">
         <v>1.345E-8</v>
       </c>
-      <c r="M52" t="b">
+      <c r="M52" s="2" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
+      <c r="A53" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B53">
+      <c r="B53" s="2">
         <f t="shared" si="0"/>
         <v>6.171300000000001E-5</v>
       </c>
-      <c r="C53" t="s">
-        <v>12</v>
-      </c>
-      <c r="D53" t="s">
-        <v>21</v>
-      </c>
-      <c r="E53" t="s">
-        <v>22</v>
-      </c>
-      <c r="F53" t="s">
-        <v>23</v>
-      </c>
-      <c r="G53" t="s">
-        <v>24</v>
-      </c>
-      <c r="H53">
-        <v>2</v>
-      </c>
-      <c r="I53">
+      <c r="C53" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H53" s="2">
+        <v>2</v>
+      </c>
+      <c r="I53" s="2">
         <v>-9.5876554366679994</v>
       </c>
-      <c r="J53">
-        <v>5.7445626465380303E-2</v>
-      </c>
-      <c r="L53">
+      <c r="J53" s="2">
+        <v>5.7445626465380303E-2</v>
+      </c>
+      <c r="L53" s="2">
         <v>6.8570000000000002E-5</v>
       </c>
-      <c r="M53" t="b">
+      <c r="M53" s="2" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
+      <c r="A54" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B54">
+      <c r="B54" s="2">
         <f t="shared" si="0"/>
         <v>5.164375552E-9</v>
       </c>
-      <c r="C54" t="s">
-        <v>12</v>
-      </c>
-      <c r="D54" t="s">
-        <v>21</v>
-      </c>
-      <c r="E54" t="s">
-        <v>22</v>
-      </c>
-      <c r="F54" t="s">
-        <v>23</v>
-      </c>
-      <c r="G54" t="s">
-        <v>24</v>
-      </c>
-      <c r="H54">
-        <v>2</v>
-      </c>
-      <c r="I54">
+      <c r="C54" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H54" s="2">
+        <v>2</v>
+      </c>
+      <c r="I54" s="2">
         <v>-19.081481641587001</v>
       </c>
-      <c r="J54">
-        <v>5.7445626465380303E-2</v>
-      </c>
-      <c r="L54">
+      <c r="J54" s="2">
+        <v>5.7445626465380303E-2</v>
+      </c>
+      <c r="L54" s="2">
         <v>5.164375552E-9</v>
       </c>
-      <c r="M54" t="b">
+      <c r="M54" s="2" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
+      <c r="A55" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B55">
+      <c r="B55" s="2">
         <f t="shared" si="0"/>
         <v>3.2759999999999998E-5</v>
       </c>
-      <c r="C55" t="s">
-        <v>12</v>
-      </c>
-      <c r="D55" t="s">
-        <v>21</v>
-      </c>
-      <c r="E55" t="s">
-        <v>22</v>
-      </c>
-      <c r="F55" t="s">
-        <v>23</v>
-      </c>
-      <c r="G55" t="s">
-        <v>24</v>
-      </c>
-      <c r="H55">
-        <v>2</v>
-      </c>
-      <c r="I55">
+      <c r="C55" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H55" s="2">
+        <v>2</v>
+      </c>
+      <c r="I55" s="2">
         <v>-10.3263022989794</v>
       </c>
-      <c r="J55">
-        <v>5.7445626465380303E-2</v>
-      </c>
-      <c r="L55">
+      <c r="J55" s="2">
+        <v>5.7445626465380303E-2</v>
+      </c>
+      <c r="L55" s="2">
         <v>3.2759999999999998E-5</v>
       </c>
-      <c r="M55" t="b">
+      <c r="M55" s="2" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
+      <c r="A56" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B56">
+      <c r="B56" s="2">
         <f t="shared" si="0"/>
         <v>2.3106891755520001E-9</v>
       </c>
-      <c r="C56" t="s">
-        <v>12</v>
-      </c>
-      <c r="D56" t="s">
-        <v>21</v>
-      </c>
-      <c r="E56" t="s">
-        <v>22</v>
-      </c>
-      <c r="F56" t="s">
-        <v>23</v>
-      </c>
-      <c r="G56" t="s">
-        <v>24</v>
-      </c>
-      <c r="H56">
-        <v>2</v>
-      </c>
-      <c r="I56">
+      <c r="C56" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H56" s="2">
+        <v>2</v>
+      </c>
+      <c r="I56" s="2">
         <v>-19.780359496855901</v>
       </c>
-      <c r="J56">
-        <v>5.7445626465380303E-2</v>
-      </c>
-      <c r="L56">
+      <c r="J56" s="2">
+        <v>5.7445626465380303E-2</v>
+      </c>
+      <c r="L56" s="2">
         <v>2.5674324172799999E-9</v>
       </c>
-      <c r="M56" t="b">
+      <c r="M56" s="2" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
+      <c r="A57" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B57">
+      <c r="B57" s="2">
         <f t="shared" si="0"/>
         <v>1.0410000000000001E-6</v>
       </c>
-      <c r="C57" t="s">
-        <v>12</v>
-      </c>
-      <c r="D57" t="s">
-        <v>21</v>
-      </c>
-      <c r="E57" t="s">
-        <v>22</v>
-      </c>
-      <c r="F57" t="s">
-        <v>23</v>
-      </c>
-      <c r="G57" t="s">
-        <v>24</v>
-      </c>
-      <c r="H57">
-        <v>2</v>
-      </c>
-      <c r="I57">
+      <c r="C57" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H57" s="2">
+        <v>2</v>
+      </c>
+      <c r="I57" s="2">
         <v>-13.7753287683314</v>
       </c>
-      <c r="J57">
-        <v>5.7445626465380303E-2</v>
-      </c>
-      <c r="L57">
+      <c r="J57" s="2">
+        <v>5.7445626465380303E-2</v>
+      </c>
+      <c r="L57" s="2">
         <v>1.0410000000000001E-6</v>
       </c>
-      <c r="M57" t="b">
+      <c r="M57" s="2" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
+      <c r="A58" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B58">
+      <c r="B58" s="2">
         <f t="shared" si="0"/>
         <v>7.8714000000000006E-6</v>
       </c>
-      <c r="C58" t="s">
-        <v>12</v>
-      </c>
-      <c r="D58" t="s">
-        <v>21</v>
-      </c>
-      <c r="E58" t="s">
-        <v>22</v>
-      </c>
-      <c r="F58" t="s">
-        <v>23</v>
-      </c>
-      <c r="G58" t="s">
-        <v>24</v>
-      </c>
-      <c r="H58">
-        <v>2</v>
-      </c>
-      <c r="I58">
+      <c r="C58" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H58" s="2">
+        <v>2</v>
+      </c>
+      <c r="I58" s="2">
         <v>-11.646914104973501</v>
       </c>
-      <c r="J58">
-        <v>5.7445626465380303E-2</v>
-      </c>
-      <c r="L58">
+      <c r="J58" s="2">
+        <v>5.7445626465380303E-2</v>
+      </c>
+      <c r="L58" s="2">
         <v>8.7460000000000006E-6</v>
       </c>
-      <c r="M58" t="b">
+      <c r="M58" s="2" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
+      <c r="A59" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B59">
+      <c r="B59" s="2">
         <f t="shared" si="0"/>
         <v>5.0607000000000005E-6</v>
       </c>
-      <c r="C59" t="s">
-        <v>12</v>
-      </c>
-      <c r="D59" t="s">
-        <v>21</v>
-      </c>
-      <c r="E59" t="s">
-        <v>22</v>
-      </c>
-      <c r="F59" t="s">
-        <v>23</v>
-      </c>
-      <c r="G59" t="s">
-        <v>24</v>
-      </c>
-      <c r="H59">
-        <v>2</v>
-      </c>
-      <c r="I59">
+      <c r="C59" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H59" s="2">
+        <v>2</v>
+      </c>
+      <c r="I59" s="2">
         <v>-12.088645228654199</v>
       </c>
-      <c r="J59">
-        <v>5.7445626465380303E-2</v>
-      </c>
-      <c r="L59">
+      <c r="J59" s="2">
+        <v>5.7445626465380303E-2</v>
+      </c>
+      <c r="L59" s="2">
         <v>5.6230000000000002E-6</v>
       </c>
-      <c r="M59" t="b">
+      <c r="M59" s="2" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
+      <c r="A60" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B60">
+      <c r="B60" s="2">
         <f t="shared" si="0"/>
         <v>1.3329000000000002E-7</v>
       </c>
-      <c r="C60" t="s">
-        <v>12</v>
-      </c>
-      <c r="D60" t="s">
-        <v>21</v>
-      </c>
-      <c r="E60" t="s">
-        <v>22</v>
-      </c>
-      <c r="F60" t="s">
-        <v>23</v>
-      </c>
-      <c r="G60" t="s">
-        <v>24</v>
-      </c>
-      <c r="H60">
-        <v>2</v>
-      </c>
-      <c r="I60">
+      <c r="C60" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H60" s="2">
+        <v>2</v>
+      </c>
+      <c r="I60" s="2">
         <v>-15.725378115672701</v>
       </c>
-      <c r="J60">
-        <v>5.7445626465380303E-2</v>
-      </c>
-      <c r="L60">
+      <c r="J60" s="2">
+        <v>5.7445626465380303E-2</v>
+      </c>
+      <c r="L60" s="2">
         <v>1.4810000000000001E-7</v>
       </c>
-      <c r="M60" t="b">
+      <c r="M60" s="2" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
+      <c r="A61" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B61">
+      <c r="B61" s="2">
         <f t="shared" si="0"/>
         <v>9.2430000000000009E-7</v>
       </c>
-      <c r="C61" t="s">
-        <v>12</v>
-      </c>
-      <c r="D61" t="s">
-        <v>21</v>
-      </c>
-      <c r="E61" t="s">
-        <v>22</v>
-      </c>
-      <c r="F61" t="s">
-        <v>23</v>
-      </c>
-      <c r="G61" t="s">
-        <v>24</v>
-      </c>
-      <c r="H61">
-        <v>2</v>
-      </c>
-      <c r="I61">
+      <c r="C61" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H61" s="2">
+        <v>2</v>
+      </c>
+      <c r="I61" s="2">
         <v>-13.7888686270179</v>
       </c>
-      <c r="J61">
-        <v>5.7445626465380303E-2</v>
-      </c>
-      <c r="L61">
+      <c r="J61" s="2">
+        <v>5.7445626465380303E-2</v>
+      </c>
+      <c r="L61" s="2">
         <v>1.0270000000000001E-6</v>
       </c>
-      <c r="M61" t="b">
+      <c r="M61" s="2" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
+      <c r="A62" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B62">
+      <c r="B62" s="2">
         <f t="shared" si="0"/>
         <v>7.3776793599999997E-10</v>
       </c>
-      <c r="C62" t="s">
-        <v>12</v>
-      </c>
-      <c r="D62" t="s">
-        <v>21</v>
-      </c>
-      <c r="E62" t="s">
-        <v>22</v>
-      </c>
-      <c r="F62" t="s">
-        <v>23</v>
-      </c>
-      <c r="G62" t="s">
-        <v>24</v>
-      </c>
-      <c r="H62">
-        <v>2</v>
-      </c>
-      <c r="I62">
+      <c r="C62" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H62" s="2">
+        <v>2</v>
+      </c>
+      <c r="I62" s="2">
         <v>-21.027391790642302</v>
       </c>
-      <c r="J62">
-        <v>5.7445626465380303E-2</v>
-      </c>
-      <c r="L62">
+      <c r="J62" s="2">
+        <v>5.7445626465380303E-2</v>
+      </c>
+      <c r="L62" s="2">
         <v>7.3776793599999997E-10</v>
       </c>
-      <c r="M62" t="b">
+      <c r="M62" s="2" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
+      <c r="A63" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B63">
+      <c r="B63" s="2">
         <f t="shared" si="0"/>
         <v>2.4444000000000004E-7</v>
       </c>
-      <c r="C63" t="s">
-        <v>12</v>
-      </c>
-      <c r="D63" t="s">
-        <v>21</v>
-      </c>
-      <c r="E63" t="s">
-        <v>22</v>
-      </c>
-      <c r="F63" t="s">
-        <v>23</v>
-      </c>
-      <c r="G63" t="s">
-        <v>24</v>
-      </c>
-      <c r="H63">
-        <v>2</v>
-      </c>
-      <c r="I63">
+      <c r="C63" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H63" s="2">
+        <v>2</v>
+      </c>
+      <c r="I63" s="2">
         <v>-15.1189354412619</v>
       </c>
-      <c r="J63">
-        <v>5.7445626465380303E-2</v>
-      </c>
-      <c r="L63">
+      <c r="J63" s="2">
+        <v>5.7445626465380303E-2</v>
+      </c>
+      <c r="L63" s="2">
         <v>2.7160000000000002E-7</v>
       </c>
-      <c r="M63" t="b">
+      <c r="M63" s="2" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
+      <c r="A64" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B64">
+      <c r="B64" s="2">
         <v>0</v>
       </c>
-      <c r="C64" t="s">
-        <v>12</v>
-      </c>
-      <c r="D64" t="s">
-        <v>21</v>
-      </c>
-      <c r="E64" t="s">
-        <v>22</v>
-      </c>
-      <c r="F64" t="s">
-        <v>23</v>
-      </c>
-      <c r="G64" t="s">
-        <v>24</v>
-      </c>
-      <c r="H64">
-        <v>2</v>
-      </c>
-      <c r="I64">
+      <c r="C64" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H64" s="2">
+        <v>2</v>
+      </c>
+      <c r="I64" s="2">
         <v>-13.4264893311002</v>
       </c>
-      <c r="J64">
-        <v>5.7445626465380303E-2</v>
-      </c>
-      <c r="L64">
+      <c r="J64" s="2">
+        <v>5.7445626465380303E-2</v>
+      </c>
+      <c r="L64" s="2">
         <v>1.475535872E-6</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
+      <c r="A65" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B65">
+      <c r="B65" s="2">
         <f t="shared" si="0"/>
         <v>6.8274000000000001E-6</v>
       </c>
-      <c r="C65" t="s">
-        <v>12</v>
-      </c>
-      <c r="D65" t="s">
-        <v>21</v>
-      </c>
-      <c r="E65" t="s">
-        <v>22</v>
-      </c>
-      <c r="F65" t="s">
-        <v>23</v>
-      </c>
-      <c r="G65" t="s">
-        <v>24</v>
-      </c>
-      <c r="H65">
-        <v>2</v>
-      </c>
-      <c r="I65">
+      <c r="C65" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H65" s="2">
+        <v>2</v>
+      </c>
+      <c r="I65" s="2">
         <v>-11.789206114697601</v>
       </c>
-      <c r="J65">
-        <v>5.7445626465380303E-2</v>
-      </c>
-      <c r="L65">
+      <c r="J65" s="2">
+        <v>5.7445626465380303E-2</v>
+      </c>
+      <c r="L65" s="2">
         <v>7.5859999999999999E-6</v>
       </c>
-      <c r="M65" t="b">
+      <c r="M65" s="2" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
+      <c r="A66" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B66">
+      <c r="B66" s="2">
         <f t="shared" si="0"/>
         <v>7.37767936E-8</v>
       </c>
-      <c r="C66" t="s">
-        <v>12</v>
-      </c>
-      <c r="D66" t="s">
-        <v>21</v>
-      </c>
-      <c r="E66" t="s">
-        <v>22</v>
-      </c>
-      <c r="F66" t="s">
-        <v>23</v>
-      </c>
-      <c r="G66" t="s">
-        <v>24</v>
-      </c>
-      <c r="H66">
-        <v>2</v>
-      </c>
-      <c r="I66">
+      <c r="C66" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H66" s="2">
+        <v>2</v>
+      </c>
+      <c r="I66" s="2">
         <v>-16.422221604654201</v>
       </c>
-      <c r="J66">
-        <v>5.7445626465380303E-2</v>
-      </c>
-      <c r="L66">
+      <c r="J66" s="2">
+        <v>5.7445626465380303E-2</v>
+      </c>
+      <c r="L66" s="2">
         <v>7.37767936E-8</v>
       </c>
-      <c r="M66" s="5" t="b">
+      <c r="M66" s="4" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
+      <c r="A67" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B67">
+      <c r="B67" s="2">
         <f t="shared" si="0"/>
         <v>2.9465999999999999E-6</v>
       </c>
-      <c r="C67" t="s">
-        <v>12</v>
-      </c>
-      <c r="D67" t="s">
-        <v>21</v>
-      </c>
-      <c r="E67" t="s">
-        <v>22</v>
-      </c>
-      <c r="F67" t="s">
-        <v>23</v>
-      </c>
-      <c r="G67" t="s">
-        <v>24</v>
-      </c>
-      <c r="H67">
-        <v>2</v>
-      </c>
-      <c r="I67">
+      <c r="C67" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H67" s="2">
+        <v>2</v>
+      </c>
+      <c r="I67" s="2">
         <v>-12.629498079015301</v>
       </c>
-      <c r="J67">
-        <v>5.7445626465380303E-2</v>
-      </c>
-      <c r="L67">
+      <c r="J67" s="2">
+        <v>5.7445626465380303E-2</v>
+      </c>
+      <c r="L67" s="2">
         <v>3.2739999999999999E-6</v>
       </c>
-      <c r="M67" t="b">
+      <c r="M67" s="2" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
+      <c r="A68" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B68">
+      <c r="B68" s="2">
         <f t="shared" si="0"/>
         <v>7.0622999999999999E-7</v>
       </c>
-      <c r="C68" t="s">
-        <v>12</v>
-      </c>
-      <c r="D68" t="s">
-        <v>21</v>
-      </c>
-      <c r="E68" t="s">
-        <v>22</v>
-      </c>
-      <c r="F68" t="s">
-        <v>23</v>
-      </c>
-      <c r="G68" t="s">
-        <v>24</v>
-      </c>
-      <c r="H68">
-        <v>2</v>
-      </c>
-      <c r="I68">
+      <c r="C68" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H68" s="2">
+        <v>2</v>
+      </c>
+      <c r="I68" s="2">
         <v>-14.057964357813001</v>
       </c>
-      <c r="J68">
-        <v>5.7445626465380303E-2</v>
-      </c>
-      <c r="L68">
+      <c r="J68" s="2">
+        <v>5.7445626465380303E-2</v>
+      </c>
+      <c r="L68" s="2">
         <v>7.8469999999999998E-7</v>
       </c>
-      <c r="M68" t="b">
+      <c r="M68" s="2" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
+      <c r="A69" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B69">
+      <c r="B69" s="2">
         <v>-9.3325400000000003E-6</v>
       </c>
-      <c r="C69" t="s">
-        <v>12</v>
-      </c>
-      <c r="D69" t="s">
+      <c r="C69" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D69" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F69" t="s">
+      <c r="F69" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G69" t="s">
+      <c r="G69" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H69">
+      <c r="H69" s="2">
         <v>0</v>
       </c>
-      <c r="I69">
+      <c r="I69" s="2">
         <v>-9.3325400000000003E-6</v>
       </c>
-      <c r="J69" t="s">
+      <c r="J69" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
+      <c r="A70" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B70">
+      <c r="B70" s="2">
         <v>1.0752688172043E-5</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C70" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D70" t="s">
+      <c r="D70" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F70" t="s">
+      <c r="F70" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G70" t="s">
+      <c r="G70" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H70">
-        <v>2</v>
-      </c>
-      <c r="I70">
+      <c r="H70" s="2">
+        <v>2</v>
+      </c>
+      <c r="I70" s="2">
         <v>-11.4403547721354</v>
       </c>
-      <c r="J70">
+      <c r="J70" s="2">
         <v>5.7445626465380303E-2</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
+      <c r="A71" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B71">
+      <c r="B71" s="2">
         <v>1.3333333333333299E-2</v>
       </c>
-      <c r="C71" t="s">
-        <v>12</v>
-      </c>
-      <c r="D71" t="s">
+      <c r="C71" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D71" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F71" t="s">
+      <c r="F71" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G71" t="s">
+      <c r="G71" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H71">
-        <v>2</v>
-      </c>
-      <c r="I71">
+      <c r="H71" s="2">
+        <v>2</v>
+      </c>
+      <c r="I71" s="2">
         <v>-4.3174881135363101</v>
       </c>
-      <c r="J71">
+      <c r="J71" s="2">
         <v>5.7445626465380303E-2</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
+      <c r="A72" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B72">
+      <c r="B72" s="2">
         <f>L72 * 0.15</f>
         <v>1.077027442007661E-2</v>
       </c>
-      <c r="C72" t="s">
-        <v>12</v>
-      </c>
-      <c r="D72" t="s">
+      <c r="C72" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D72" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F72" t="s">
+      <c r="F72" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="G72" t="s">
+      <c r="G72" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H72">
-        <v>2</v>
-      </c>
-      <c r="I72">
+      <c r="H72" s="2">
+        <v>2</v>
+      </c>
+      <c r="I72" s="2">
         <v>-2.6338453232083201</v>
       </c>
-      <c r="J72">
-        <v>5.7445626465380303E-2</v>
-      </c>
-      <c r="L72">
+      <c r="J72" s="2">
+        <v>5.7445626465380303E-2</v>
+      </c>
+      <c r="L72" s="2">
         <v>7.1801829467177405E-2</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
+      <c r="A73" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B73">
+      <c r="B73" s="2">
         <f>L73 * 0.15</f>
         <v>2.9624461992338544E-4</v>
       </c>
-      <c r="C73" t="s">
-        <v>12</v>
-      </c>
-      <c r="D73" t="s">
+      <c r="C73" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D73" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F73" t="s">
+      <c r="F73" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="G73" t="s">
+      <c r="G73" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H73">
-        <v>2</v>
-      </c>
-      <c r="I73">
+      <c r="H73" s="2">
+        <v>2</v>
+      </c>
+      <c r="I73" s="2">
         <v>-6.2272050413901203</v>
       </c>
-      <c r="J73">
-        <v>5.7445626465380303E-2</v>
-      </c>
-      <c r="L73">
+      <c r="J73" s="2">
+        <v>5.7445626465380303E-2</v>
+      </c>
+      <c r="L73" s="2">
         <v>1.9749641328225698E-3</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
+      <c r="A74" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B74">
+      <c r="B74" s="2">
         <v>1.1261964E-3</v>
       </c>
-      <c r="C74" t="s">
+      <c r="C74" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D74" t="s">
+      <c r="D74" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F74" t="s">
-        <v>79</v>
-      </c>
-      <c r="G74" t="s">
+      <c r="F74" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G74" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H74">
-        <v>2</v>
-      </c>
-      <c r="I74">
+      <c r="H74" s="2">
+        <v>2</v>
+      </c>
+      <c r="I74" s="2">
         <v>-6.7889093417391697</v>
       </c>
-      <c r="J74">
+      <c r="J74" s="2">
         <v>5.7445626465380303E-2</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
+      <c r="A75" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B75">
+      <c r="B75" s="2">
         <v>-2.0531587999999999E-5</v>
       </c>
-      <c r="C75" t="s">
-        <v>12</v>
-      </c>
-      <c r="D75" t="s">
+      <c r="C75" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D75" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F75" t="s">
+      <c r="F75" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G75" t="s">
+      <c r="G75" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H75">
+      <c r="H75" s="2">
         <v>0</v>
       </c>
-      <c r="I75">
+      <c r="I75" s="2">
         <v>-2.0531587999999999E-5</v>
       </c>
-      <c r="J75" t="s">
+      <c r="J75" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
+      <c r="A76" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B76">
+      <c r="B76" s="2">
         <v>-1.200647E-4</v>
       </c>
-      <c r="C76" t="s">
-        <v>12</v>
-      </c>
-      <c r="D76" t="s">
+      <c r="C76" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D76" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F76" t="s">
+      <c r="F76" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G76" t="s">
+      <c r="G76" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H76">
+      <c r="H76" s="2">
         <v>0</v>
       </c>
-      <c r="I76">
+      <c r="I76" s="2">
         <v>-1.200647E-4</v>
       </c>
-      <c r="J76" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="78" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="J76" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>4</v>
       </c>
@@ -3207,51 +3199,51 @@
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
+      <c r="A79" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B79" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
+      <c r="A80" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B80" s="2" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
+      <c r="A81" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B81">
+      <c r="B81" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
+      <c r="A82" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B82" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
+      <c r="A83" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B83" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="84" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="85" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>14</v>
       </c>
@@ -3280,86 +3272,86 @@
         <v>18</v>
       </c>
     </row>
-    <row r="86" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A86" s="3" t="s">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A86" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B86">
-        <v>1</v>
-      </c>
-      <c r="C86" t="s">
+      <c r="B86" s="2">
+        <v>1</v>
+      </c>
+      <c r="C86" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D86" s="3" t="s">
+      <c r="D86" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F86" t="s">
+      <c r="F86" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G86" t="s">
+      <c r="G86" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H86">
+      <c r="H86" s="2">
         <v>0</v>
       </c>
-      <c r="I86">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A87" s="3" t="s">
+      <c r="I86" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A87" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B87">
-        <v>1</v>
-      </c>
-      <c r="C87" t="s">
+      <c r="B87" s="2">
+        <v>1</v>
+      </c>
+      <c r="C87" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D87" s="3" t="s">
+      <c r="D87" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F87" t="s">
+      <c r="F87" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G87" t="s">
+      <c r="G87" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H87">
+      <c r="H87" s="2">
         <v>0</v>
       </c>
-      <c r="I87">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A88" t="s">
+      <c r="I87" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A88" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B88">
+      <c r="B88" s="2">
         <f>SUM(L72:L73) * 0.85 * 1.46</f>
         <v>9.1557000857599963E-2</v>
       </c>
-      <c r="C88" t="s">
-        <v>12</v>
-      </c>
-      <c r="D88" s="3" t="s">
+      <c r="C88" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D88" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F88" t="s">
+      <c r="F88" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G88" t="s">
+      <c r="G88" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H88">
+      <c r="H88" s="2">
         <v>0</v>
       </c>
-      <c r="I88">
+      <c r="I88" s="2">
         <v>9.1557000857599963E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>4</v>
       </c>
@@ -3368,51 +3360,51 @@
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A91" t="s">
+      <c r="A91" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B91" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A92" t="s">
+      <c r="A92" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B92" s="2" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A93" t="s">
+      <c r="A93" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B93">
+      <c r="B93" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A94" t="s">
+      <c r="A94" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B94" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A95" t="s">
+      <c r="A95" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B95" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="96" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="97" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>14</v>
       </c>
@@ -3441,139 +3433,139 @@
         <v>18</v>
       </c>
     </row>
-    <row r="98" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A98" s="3" t="s">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A98" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B98">
-        <v>1</v>
-      </c>
-      <c r="C98" t="s">
+      <c r="B98" s="2">
+        <v>1</v>
+      </c>
+      <c r="C98" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D98" s="3" t="s">
+      <c r="D98" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F98" t="s">
+      <c r="F98" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G98" t="s">
+      <c r="G98" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H98">
+      <c r="H98" s="2">
         <v>0</v>
       </c>
-      <c r="I98">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A99" s="3" t="s">
+      <c r="I98" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A99" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B99">
-        <v>1</v>
-      </c>
-      <c r="C99" t="s">
+      <c r="B99" s="2">
+        <v>1</v>
+      </c>
+      <c r="C99" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D99" s="3" t="s">
+      <c r="D99" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F99" t="s">
+      <c r="F99" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G99" t="s">
+      <c r="G99" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H99">
+      <c r="H99" s="2">
         <v>0</v>
       </c>
-      <c r="I99">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A100" t="s">
+      <c r="I99" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A100" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B100">
+      <c r="B100" s="2">
         <f>SUM(L72:L73) * 0.85 * 1.46</f>
         <v>9.1557000857599963E-2</v>
       </c>
-      <c r="C100" t="s">
-        <v>12</v>
-      </c>
-      <c r="D100" s="3" t="s">
+      <c r="C100" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D100" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F100" t="s">
+      <c r="F100" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G100" t="s">
+      <c r="G100" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H100">
+      <c r="H100" s="2">
         <v>0</v>
       </c>
-      <c r="I100">
+      <c r="I100" s="2">
         <v>9.1557000857599963E-2</v>
       </c>
     </row>
-    <row r="102" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B102" s="4" t="s">
+      <c r="B102" s="1" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A103" t="s">
+      <c r="A103" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B103" t="s">
+      <c r="B103" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A104" t="s">
+      <c r="A104" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B104" t="s">
+      <c r="B104" s="2" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A105" t="s">
+      <c r="A105" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B105">
+      <c r="B105" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A106" t="s">
+      <c r="A106" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B106" t="s">
+      <c r="B106" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A107" t="s">
+      <c r="A107" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B107" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="108" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="B107" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="109" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>14</v>
       </c>
@@ -3602,196 +3594,196 @@
         <v>18</v>
       </c>
     </row>
-    <row r="110" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A110" s="5" t="s">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A110" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="B110">
-        <v>1</v>
-      </c>
-      <c r="C110" t="s">
-        <v>12</v>
-      </c>
-      <c r="D110" s="3" t="s">
+      <c r="B110" s="2">
+        <v>1</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D110" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F110" t="s">
+      <c r="F110" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G110" t="s">
+      <c r="G110" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H110">
+      <c r="H110" s="2">
         <v>0</v>
       </c>
-      <c r="I110">
+      <c r="I110" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A111" t="s">
+      <c r="A111" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B111">
-        <v>1</v>
-      </c>
-      <c r="C111" t="s">
-        <v>12</v>
-      </c>
-      <c r="D111" t="s">
+      <c r="B111" s="2">
+        <v>1</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D111" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F111" t="s">
+      <c r="F111" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="G111" t="s">
+      <c r="G111" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H111">
+      <c r="H111" s="2">
         <v>0</v>
       </c>
-      <c r="I111">
+      <c r="I111" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A112" t="s">
+      <c r="A112" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B112">
+      <c r="B112" s="2">
         <v>1.5</v>
       </c>
-      <c r="C112" t="s">
+      <c r="C112" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="D112" t="s">
+      <c r="D112" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F112" t="s">
+      <c r="F112" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H112" s="2">
+        <v>0</v>
+      </c>
+      <c r="I112" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="K112" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A113" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B113" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G113" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H113" s="2">
+        <v>0</v>
+      </c>
+      <c r="I113" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="K113" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A114" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B114" s="2">
+        <v>6.1059999999999999</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F114" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G112" t="s">
+      <c r="G114" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H112">
+      <c r="H114" s="2">
         <v>0</v>
       </c>
-      <c r="I112">
-        <v>1.5</v>
-      </c>
-      <c r="K112" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A113" t="s">
-        <v>96</v>
-      </c>
-      <c r="B113">
-        <v>0.5</v>
-      </c>
-      <c r="C113" t="s">
-        <v>97</v>
-      </c>
-      <c r="D113" t="s">
-        <v>31</v>
-      </c>
-      <c r="F113" t="s">
-        <v>32</v>
-      </c>
-      <c r="G113" t="s">
-        <v>26</v>
-      </c>
-      <c r="H113">
-        <v>0</v>
-      </c>
-      <c r="I113">
-        <v>0.5</v>
-      </c>
-      <c r="K113" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A114" t="s">
-        <v>98</v>
-      </c>
-      <c r="B114">
+      <c r="I114" s="2">
         <v>6.1059999999999999</v>
       </c>
-      <c r="C114" t="s">
-        <v>97</v>
-      </c>
-      <c r="D114" t="s">
-        <v>31</v>
-      </c>
-      <c r="F114" t="s">
-        <v>32</v>
-      </c>
-      <c r="G114" t="s">
-        <v>26</v>
-      </c>
-      <c r="H114">
-        <v>0</v>
-      </c>
-      <c r="I114">
-        <v>6.1059999999999999</v>
-      </c>
-    </row>
-    <row r="116" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B116" s="4" t="s">
+      <c r="B116" s="1" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A117" t="s">
+      <c r="A117" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B117" t="s">
+      <c r="B117" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A118" t="s">
+      <c r="A118" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B118" t="s">
+      <c r="B118" s="2" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A119" t="s">
+      <c r="A119" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B119">
+      <c r="B119" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A120" t="s">
+      <c r="A120" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B120" t="s">
+      <c r="B120" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A121" t="s">
+      <c r="A121" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B121" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="122" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="B121" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="123" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
         <v>14</v>
       </c>
@@ -3820,139 +3812,139 @@
         <v>18</v>
       </c>
     </row>
-    <row r="124" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A124" s="6" t="s">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A124" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B124">
-        <v>1</v>
-      </c>
-      <c r="C124" t="s">
-        <v>12</v>
-      </c>
-      <c r="D124" s="3" t="s">
+      <c r="B124" s="2">
+        <v>1</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D124" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F124" t="s">
+      <c r="F124" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G124" t="s">
+      <c r="G124" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H124">
+      <c r="H124" s="2">
         <v>0</v>
       </c>
-      <c r="I124">
+      <c r="I124" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A125" t="s">
+      <c r="A125" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B125">
-        <v>1</v>
-      </c>
-      <c r="C125" t="s">
-        <v>12</v>
-      </c>
-      <c r="D125" t="s">
+      <c r="B125" s="2">
+        <v>1</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D125" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F125" t="s">
+      <c r="F125" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="G125" t="s">
+      <c r="G125" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H125">
+      <c r="H125" s="2">
         <v>0</v>
       </c>
-      <c r="I125">
+      <c r="I125" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A126" t="s">
+      <c r="A126" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B126">
-        <v>1</v>
-      </c>
-      <c r="C126" t="s">
+      <c r="B126" s="2">
+        <v>1</v>
+      </c>
+      <c r="C126" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="D126" t="s">
+      <c r="D126" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F126" t="s">
+      <c r="F126" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G126" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H126" s="2">
+        <v>0</v>
+      </c>
+      <c r="I126" s="2">
+        <v>1</v>
+      </c>
+      <c r="K126" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A127" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B127" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F127" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G127" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H127" s="2">
+        <v>0</v>
+      </c>
+      <c r="I127" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="K127" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A128" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B128" s="2">
+        <v>6.4790000000000001</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F128" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G126" t="s">
+      <c r="G128" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H126">
+      <c r="H128" s="2">
         <v>0</v>
       </c>
-      <c r="I126">
-        <v>1</v>
-      </c>
-      <c r="K126" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A127" t="s">
-        <v>96</v>
-      </c>
-      <c r="B127">
-        <v>0.5</v>
-      </c>
-      <c r="C127" t="s">
-        <v>97</v>
-      </c>
-      <c r="D127" t="s">
-        <v>31</v>
-      </c>
-      <c r="F127" t="s">
-        <v>32</v>
-      </c>
-      <c r="G127" t="s">
-        <v>26</v>
-      </c>
-      <c r="H127">
-        <v>0</v>
-      </c>
-      <c r="I127">
-        <v>0.5</v>
-      </c>
-      <c r="K127" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A128" t="s">
-        <v>98</v>
-      </c>
-      <c r="B128">
-        <v>6.4790000000000001</v>
-      </c>
-      <c r="C128" t="s">
-        <v>97</v>
-      </c>
-      <c r="D128" t="s">
-        <v>31</v>
-      </c>
-      <c r="F128" t="s">
-        <v>32</v>
-      </c>
-      <c r="G128" t="s">
-        <v>26</v>
-      </c>
-      <c r="H128">
-        <v>0</v>
-      </c>
-      <c r="I128">
+      <c r="I128" s="2">
         <v>6.4790000000000001</v>
       </c>
     </row>

--- a/LC-IMPACT-case-study/notebooks/ethanol-inventory.xlsx
+++ b/LC-IMPACT-case-study/notebooks/ethanol-inventory.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11012"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cmutel/Code/regionalization-examples/LC-IMPACT-case-study/notebooks/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cmutel/Downloads/regionalized-lca-examples-master/LC-IMPACT-case-study/notebooks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D130A8F1-0091-5A44-9BBA-1FC2C8C33F9B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0F63A3C-C793-7A43-93DD-FC42A04D2343}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="260" yWindow="760" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="first process" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -321,9 +321,6 @@
     <t>ton kilometer</t>
   </si>
   <si>
-    <t>transport, freight, sea, transoceanic ship</t>
-  </si>
-  <si>
     <t>sugarcane</t>
   </si>
   <si>
@@ -355,13 +352,16 @@
   </si>
   <si>
     <t>Methane, non-fossil</t>
+  </si>
+  <si>
+    <t>market for transport, freight, sea, container ship</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -415,6 +415,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -546,12 +552,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="111">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -966,8 +973,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="F74" sqref="F74"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A128" sqref="A128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1242,7 +1249,7 @@
         <v>85</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
@@ -1666,7 +1673,7 @@
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B36" s="2">
         <f t="shared" si="0"/>
@@ -1705,7 +1712,7 @@
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B37" s="2">
         <f t="shared" si="0"/>
@@ -1742,7 +1749,7 @@
         <v>1</v>
       </c>
       <c r="N37" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.2">
@@ -2254,7 +2261,7 @@
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B51" s="2">
         <f t="shared" si="0"/>
@@ -3622,7 +3629,7 @@
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B111" s="2">
         <v>1</v>
@@ -3634,7 +3641,7 @@
         <v>31</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G111" s="2" t="s">
         <v>26</v>
@@ -3672,7 +3679,7 @@
         <v>1.5</v>
       </c>
       <c r="K112" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.2">
@@ -3701,12 +3708,12 @@
         <v>0.5</v>
       </c>
       <c r="K113" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A114" s="2" t="s">
-        <v>98</v>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" ht="17" x14ac:dyDescent="0.25">
+      <c r="A114" s="5" t="s">
+        <v>109</v>
       </c>
       <c r="B114" s="2">
         <v>6.1059999999999999</v>
@@ -3751,7 +3758,7 @@
         <v>6</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.2">
@@ -3840,7 +3847,7 @@
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B125" s="2">
         <v>1</v>
@@ -3890,7 +3897,7 @@
         <v>1</v>
       </c>
       <c r="K126" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.2">
@@ -3919,12 +3926,12 @@
         <v>0.5</v>
       </c>
       <c r="K127" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A128" s="2" t="s">
-        <v>98</v>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" ht="17" x14ac:dyDescent="0.25">
+      <c r="A128" s="5" t="s">
+        <v>109</v>
       </c>
       <c r="B128" s="2">
         <v>6.4790000000000001</v>
